--- a/Splitting Teams.xlsx
+++ b/Splitting Teams.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbart\Google Drive\Spreadsheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbart\Google Drive\Spreadsheet\test2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9988881B-A57F-487F-8FAD-7933605928FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB303F6D-7974-4C7F-A7F9-EE31BE02BCBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{5070C0D3-2FA2-435F-9B9F-B91305C71E97}"/>
+    <workbookView xWindow="2196" yWindow="2196" windowWidth="23040" windowHeight="12204" activeTab="2" xr2:uid="{5070C0D3-2FA2-435F-9B9F-B91305C71E97}"/>
   </bookViews>
   <sheets>
     <sheet name="P1a" sheetId="4" r:id="rId1"/>
@@ -1650,13 +1650,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1677,37 +1711,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1716,11 +1729,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1749,25 +1768,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1861,7 +1861,7 @@
           <xdr:col>30</xdr:col>
           <xdr:colOff>327660</xdr:colOff>
           <xdr:row>57</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1871,7 +1871,7 @@
                   <a14:compatExt spid="_x0000_s2051"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{500C4DCF-AE2C-40CF-8E38-0054165C45E9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1892,23 +1892,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1999,7 +1986,7 @@
                   <a14:compatExt spid="_x0000_s5124"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27BE65A7-75FB-48D2-AA0E-ABDEF51F4310}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2020,23 +2007,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2067,7 +2041,7 @@
         <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73209163-1CB3-4AB2-8BF6-122768EE4DE1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2123,7 +2097,7 @@
         <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1081AB53-0BDC-4972-BF5D-C2A0FF0C73E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2163,15 +2137,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>45720</xdr:colOff>
-          <xdr:row>46</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:colOff>48858</xdr:colOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>34962</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>182880</xdr:colOff>
-          <xdr:row>121</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:colOff>86958</xdr:colOff>
+          <xdr:row>117</xdr:row>
+          <xdr:rowOff>173467</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2181,7 +2155,7 @@
                   <a14:compatExt spid="_x0000_s6145"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{487545A8-F983-4834-B223-3D55B5A70041}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2202,23 +2176,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2244,7 +2205,7 @@
         <xdr:cNvPr id="4" name="TextBox 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A46197D-1D00-46D4-801F-4633559FA408}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3301,15 +3262,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>32</xdr:col>
-          <xdr:colOff>17929</xdr:colOff>
+          <xdr:colOff>15240</xdr:colOff>
           <xdr:row>49</xdr:row>
-          <xdr:rowOff>8964</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>42</xdr:col>
-          <xdr:colOff>35858</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>89</xdr:row>
-          <xdr:rowOff>104008</xdr:rowOff>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3319,7 +3280,7 @@
                   <a14:compatExt spid="_x0000_s6146"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E295431-947D-4FBF-A0A4-1F1B4FDDD70D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3340,23 +3301,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3681,44 +3629,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="60"/>
-      <c r="Z1" s="53" t="s">
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="75"/>
+      <c r="Z1" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="55" t="s">
+      <c r="AA1" s="70"/>
+      <c r="AB1" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="56"/>
-      <c r="AG1" s="57"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="73"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B2" s="23" t="s">
@@ -4815,44 +4763,44 @@
     <row r="21" spans="1:37" ht="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="V24" s="50" t="s">
+      <c r="V24" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="W24" s="50"/>
-      <c r="X24" s="50"/>
+      <c r="W24" s="76"/>
+      <c r="X24" s="76"/>
       <c r="Y24" s="47">
         <f>SUMPRODUCT(B3:Y3,B16:Y16)</f>
         <v>63992</v>
       </c>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="V25" s="50" t="s">
+      <c r="V25" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="W25" s="50"/>
-      <c r="X25" s="50"/>
+      <c r="W25" s="76"/>
+      <c r="X25" s="76"/>
       <c r="Y25">
         <f>C3+E3+G3+I3</f>
         <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="V26" s="50" t="s">
+      <c r="V26" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="W26" s="50"/>
-      <c r="X26" s="50"/>
+      <c r="W26" s="76"/>
+      <c r="X26" s="76"/>
       <c r="Y26">
         <f>K3+M3+O3+Q3</f>
         <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="V27" s="50" t="s">
+      <c r="V27" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="W27" s="50"/>
-      <c r="X27" s="50"/>
+      <c r="W27" s="76"/>
+      <c r="X27" s="76"/>
       <c r="Y27">
         <f>S3+U3+W3+Y3</f>
         <v>399</v>
@@ -4865,42 +4813,42 @@
     <row r="30" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:37" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="V31" s="1"/>
-      <c r="W31" s="51" t="s">
+      <c r="W31" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="X31" s="52"/>
-      <c r="Y31" s="51" t="s">
+      <c r="X31" s="66"/>
+      <c r="Y31" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="Z31" s="52"/>
-      <c r="AA31" s="51" t="s">
+      <c r="Z31" s="66"/>
+      <c r="AA31" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="AB31" s="52"/>
-      <c r="AC31" s="63" t="s">
+      <c r="AB31" s="66"/>
+      <c r="AC31" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="AD31" s="64"/>
-      <c r="AI31" s="59"/>
-      <c r="AJ31" s="59"/>
+      <c r="AD31" s="68"/>
+      <c r="AI31" s="64"/>
+      <c r="AJ31" s="64"/>
       <c r="AK31" s="15"/>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="V32" s="65"/>
-      <c r="W32" s="67"/>
-      <c r="X32" s="68"/>
-      <c r="Y32" s="67"/>
-      <c r="Z32" s="68"/>
-      <c r="AA32" s="67"/>
-      <c r="AB32" s="68"/>
+      <c r="V32" s="57"/>
+      <c r="W32" s="59"/>
+      <c r="X32" s="60"/>
+      <c r="Y32" s="59"/>
+      <c r="Z32" s="60"/>
+      <c r="AA32" s="59"/>
+      <c r="AB32" s="60"/>
       <c r="AC32" s="37"/>
       <c r="AD32" s="4"/>
-      <c r="AI32" s="69"/>
-      <c r="AJ32" s="69"/>
+      <c r="AI32" s="61"/>
+      <c r="AJ32" s="61"/>
       <c r="AK32" s="15"/>
     </row>
     <row r="33" spans="22:30" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="V33" s="66"/>
+      <c r="V33" s="58"/>
       <c r="W33" s="3" t="s">
         <v>8</v>
       </c>
@@ -5094,46 +5042,46 @@
         <f>SUM(AB34:AB37)</f>
         <v>399</v>
       </c>
-      <c r="AC38" s="61">
+      <c r="AC38" s="62">
         <f>SUM(W38:AB38)</f>
         <v>1400</v>
       </c>
-      <c r="AD38" s="62"/>
+      <c r="AD38" s="63"/>
     </row>
     <row r="39" spans="22:30" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="81" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="82" spans="2:10" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B82" s="1"/>
-      <c r="C82" s="51" t="s">
+      <c r="C82" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="D82" s="52"/>
-      <c r="E82" s="51" t="s">
+      <c r="D82" s="66"/>
+      <c r="E82" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="F82" s="52"/>
-      <c r="G82" s="51" t="s">
+      <c r="F82" s="66"/>
+      <c r="G82" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="H82" s="52"/>
-      <c r="I82" s="63" t="s">
+      <c r="H82" s="66"/>
+      <c r="I82" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="J82" s="64"/>
+      <c r="J82" s="68"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B83" s="65"/>
-      <c r="C83" s="67"/>
-      <c r="D83" s="68"/>
-      <c r="E83" s="67"/>
-      <c r="F83" s="68"/>
-      <c r="G83" s="67"/>
-      <c r="H83" s="68"/>
+      <c r="B83" s="57"/>
+      <c r="C83" s="59"/>
+      <c r="D83" s="60"/>
+      <c r="E83" s="59"/>
+      <c r="F83" s="60"/>
+      <c r="G83" s="59"/>
+      <c r="H83" s="60"/>
       <c r="I83" s="14"/>
       <c r="J83" s="4"/>
     </row>
     <row r="84" spans="2:10" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="66"/>
+      <c r="B84" s="58"/>
       <c r="C84" s="3" t="s">
         <v>8</v>
       </c>
@@ -5327,20 +5275,25 @@
         <f>SUM(H85:H88)</f>
         <v>399</v>
       </c>
-      <c r="I89" s="61">
+      <c r="I89" s="62">
         <f>SUM(C89:H89)</f>
         <v>1400</v>
       </c>
-      <c r="J89" s="62"/>
+      <c r="J89" s="63"/>
     </row>
     <row r="90" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="AI32:AJ32"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="W31:X31"/>
+    <mergeCell ref="Y31:Z31"/>
+    <mergeCell ref="AA31:AB31"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AG1"/>
+    <mergeCell ref="B1:Y1"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="V25:X25"/>
     <mergeCell ref="I89:J89"/>
     <mergeCell ref="AI31:AJ31"/>
     <mergeCell ref="C82:D82"/>
@@ -5353,16 +5306,11 @@
     <mergeCell ref="W32:X32"/>
     <mergeCell ref="Y32:Z32"/>
     <mergeCell ref="AA32:AB32"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AG1"/>
-    <mergeCell ref="B1:Y1"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="W31:X31"/>
-    <mergeCell ref="Y31:Z31"/>
-    <mergeCell ref="AA31:AB31"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="AI32:AJ32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5441,44 +5389,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="60"/>
-      <c r="Z1" s="53" t="s">
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="75"/>
+      <c r="Z1" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="55" t="s">
+      <c r="AA1" s="70"/>
+      <c r="AB1" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="56"/>
-      <c r="AG1" s="57"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="73"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B2" s="23" t="s">
@@ -6575,36 +6523,36 @@
     <row r="20" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:52" ht="16.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AR21" s="1"/>
-      <c r="AS21" s="51" t="s">
+      <c r="AS21" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="AT21" s="52"/>
-      <c r="AU21" s="51" t="s">
+      <c r="AT21" s="66"/>
+      <c r="AU21" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="AV21" s="52"/>
-      <c r="AW21" s="51" t="s">
+      <c r="AV21" s="66"/>
+      <c r="AW21" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="AX21" s="52"/>
-      <c r="AY21" s="63" t="s">
+      <c r="AX21" s="66"/>
+      <c r="AY21" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="AZ21" s="64"/>
+      <c r="AZ21" s="68"/>
     </row>
     <row r="22" spans="1:52" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="AR22" s="65"/>
-      <c r="AS22" s="67"/>
-      <c r="AT22" s="68"/>
-      <c r="AU22" s="67"/>
-      <c r="AV22" s="68"/>
-      <c r="AW22" s="67"/>
-      <c r="AX22" s="68"/>
+      <c r="AR22" s="57"/>
+      <c r="AS22" s="59"/>
+      <c r="AT22" s="60"/>
+      <c r="AU22" s="59"/>
+      <c r="AV22" s="60"/>
+      <c r="AW22" s="59"/>
+      <c r="AX22" s="60"/>
       <c r="AY22" s="37"/>
       <c r="AZ22" s="4"/>
     </row>
     <row r="23" spans="1:52" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AR23" s="66"/>
+      <c r="AR23" s="58"/>
       <c r="AS23" s="3" t="s">
         <v>8</v>
       </c>
@@ -6631,11 +6579,11 @@
       </c>
     </row>
     <row r="24" spans="1:52" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="V24" s="50" t="s">
+      <c r="V24" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="W24" s="50"/>
-      <c r="X24" s="50"/>
+      <c r="W24" s="76"/>
+      <c r="X24" s="76"/>
       <c r="Y24" s="47">
         <f>SUMPRODUCT(B3:Y3,B16:Y16)</f>
         <v>65176</v>
@@ -6675,11 +6623,11 @@
       </c>
     </row>
     <row r="25" spans="1:52" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="V25" s="50" t="s">
+      <c r="V25" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="W25" s="50"/>
-      <c r="X25" s="50"/>
+      <c r="W25" s="76"/>
+      <c r="X25" s="76"/>
       <c r="Y25">
         <f>C3+E3+G3+I3</f>
         <v>156</v>
@@ -6719,11 +6667,11 @@
       </c>
     </row>
     <row r="26" spans="1:52" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="V26" s="50" t="s">
+      <c r="V26" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="W26" s="50"/>
-      <c r="X26" s="50"/>
+      <c r="W26" s="76"/>
+      <c r="X26" s="76"/>
       <c r="Y26">
         <f>K3+M3+O3+Q3</f>
         <v>288</v>
@@ -6763,11 +6711,11 @@
       </c>
     </row>
     <row r="27" spans="1:52" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="V27" s="50" t="s">
+      <c r="V27" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="W27" s="50"/>
-      <c r="X27" s="50"/>
+      <c r="W27" s="76"/>
+      <c r="X27" s="76"/>
       <c r="Y27">
         <f>S3+U3+W3+Y3</f>
         <v>362</v>
@@ -6834,49 +6782,49 @@
         <f>SUM(AX24:AX27)</f>
         <v>362</v>
       </c>
-      <c r="AY28" s="61">
+      <c r="AY28" s="62">
         <f>SUM(AS28:AX28)</f>
         <v>1400</v>
       </c>
-      <c r="AZ28" s="62"/>
+      <c r="AZ28" s="63"/>
     </row>
     <row r="29" spans="1:52" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="30" spans="1:52" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="U30" s="1"/>
-      <c r="V30" s="51" t="s">
+      <c r="V30" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="W30" s="52"/>
-      <c r="X30" s="51" t="s">
+      <c r="W30" s="66"/>
+      <c r="X30" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="Y30" s="52"/>
-      <c r="Z30" s="51" t="s">
+      <c r="Y30" s="66"/>
+      <c r="Z30" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="AA30" s="52"/>
-      <c r="AB30" s="63" t="s">
+      <c r="AA30" s="66"/>
+      <c r="AB30" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="AC30" s="64"/>
+      <c r="AC30" s="68"/>
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="U31" s="65"/>
-      <c r="V31" s="67"/>
-      <c r="W31" s="68"/>
-      <c r="X31" s="67"/>
-      <c r="Y31" s="68"/>
-      <c r="Z31" s="67"/>
-      <c r="AA31" s="68"/>
+      <c r="U31" s="57"/>
+      <c r="V31" s="59"/>
+      <c r="W31" s="60"/>
+      <c r="X31" s="59"/>
+      <c r="Y31" s="60"/>
+      <c r="Z31" s="59"/>
+      <c r="AA31" s="60"/>
       <c r="AB31" s="49"/>
       <c r="AC31" s="4"/>
-      <c r="AI31" s="70" t="s">
+      <c r="AI31" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="AJ31" s="71"/>
+      <c r="AJ31" s="80"/>
     </row>
     <row r="32" spans="1:52" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="U32" s="66"/>
+      <c r="U32" s="58"/>
       <c r="V32" s="3" t="s">
         <v>8</v>
       </c>
@@ -6901,11 +6849,11 @@
       <c r="AC32" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AI32" s="72">
+      <c r="AI32" s="77">
         <f>AS25+AT25+AS27+AT27+AU25+AV25+AW24+AX24+AW26+AX26</f>
         <v>48</v>
       </c>
-      <c r="AJ32" s="73"/>
+      <c r="AJ32" s="78"/>
     </row>
     <row r="33" spans="21:29" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="U33" s="6" t="s">
@@ -7075,33 +7023,15 @@
         <f>SUM(AA33:AA36)</f>
         <v>362</v>
       </c>
-      <c r="AB37" s="61">
+      <c r="AB37" s="62">
         <f>SUM(V37:AA37)</f>
         <v>1400</v>
       </c>
-      <c r="AC37" s="62"/>
+      <c r="AC37" s="63"/>
     </row>
     <row r="38" spans="21:29" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="U31:U32"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="Z31:AA31"/>
-    <mergeCell ref="AB37:AC37"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="B1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AG1"/>
-    <mergeCell ref="AS21:AT21"/>
-    <mergeCell ref="AI32:AJ32"/>
-    <mergeCell ref="AY21:AZ21"/>
-    <mergeCell ref="AR22:AR23"/>
-    <mergeCell ref="AS22:AT22"/>
-    <mergeCell ref="AU22:AV22"/>
-    <mergeCell ref="AW22:AX22"/>
-    <mergeCell ref="AU21:AV21"/>
-    <mergeCell ref="AW21:AX21"/>
     <mergeCell ref="V25:X25"/>
     <mergeCell ref="V26:X26"/>
     <mergeCell ref="V27:X27"/>
@@ -7111,6 +7041,24 @@
     <mergeCell ref="X30:Y30"/>
     <mergeCell ref="Z30:AA30"/>
     <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AI32:AJ32"/>
+    <mergeCell ref="AY21:AZ21"/>
+    <mergeCell ref="AR22:AR23"/>
+    <mergeCell ref="AS22:AT22"/>
+    <mergeCell ref="AU22:AV22"/>
+    <mergeCell ref="AW22:AX22"/>
+    <mergeCell ref="AU21:AV21"/>
+    <mergeCell ref="AW21:AX21"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="B1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AG1"/>
+    <mergeCell ref="AS21:AT21"/>
+    <mergeCell ref="U31:U32"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="Z31:AA31"/>
+    <mergeCell ref="AB37:AC37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7176,10 +7124,10 @@
   <dimension ref="A1:CJ48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="F34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q45" sqref="Q45"/>
+      <selection pane="bottomRight" activeCell="Q41" sqref="Q41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7189,689 +7137,689 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:88" x14ac:dyDescent="0.3">
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="76" t="s">
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="74"/>
-      <c r="V1" s="74"/>
-      <c r="W1" s="74"/>
-      <c r="X1" s="74"/>
-      <c r="Y1" s="74"/>
-      <c r="Z1" s="74"/>
-      <c r="AA1" s="74"/>
-      <c r="AB1" s="74"/>
-      <c r="AC1" s="74"/>
-      <c r="AD1" s="74"/>
-      <c r="AE1" s="74"/>
-      <c r="AF1" s="74"/>
-      <c r="AG1" s="75"/>
-      <c r="AH1" s="76" t="s">
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
+      <c r="W1" s="85"/>
+      <c r="X1" s="85"/>
+      <c r="Y1" s="85"/>
+      <c r="Z1" s="85"/>
+      <c r="AA1" s="85"/>
+      <c r="AB1" s="85"/>
+      <c r="AC1" s="85"/>
+      <c r="AD1" s="85"/>
+      <c r="AE1" s="85"/>
+      <c r="AF1" s="85"/>
+      <c r="AG1" s="86"/>
+      <c r="AH1" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="AI1" s="74"/>
-      <c r="AJ1" s="74"/>
-      <c r="AK1" s="74"/>
-      <c r="AL1" s="74"/>
-      <c r="AM1" s="74"/>
-      <c r="AN1" s="74"/>
-      <c r="AO1" s="74"/>
-      <c r="AP1" s="74"/>
-      <c r="AQ1" s="74"/>
-      <c r="AR1" s="74"/>
-      <c r="AS1" s="74"/>
-      <c r="AT1" s="74"/>
-      <c r="AU1" s="74"/>
-      <c r="AV1" s="74"/>
-      <c r="AW1" s="75"/>
-      <c r="AX1" s="76" t="s">
+      <c r="AI1" s="85"/>
+      <c r="AJ1" s="85"/>
+      <c r="AK1" s="85"/>
+      <c r="AL1" s="85"/>
+      <c r="AM1" s="85"/>
+      <c r="AN1" s="85"/>
+      <c r="AO1" s="85"/>
+      <c r="AP1" s="85"/>
+      <c r="AQ1" s="85"/>
+      <c r="AR1" s="85"/>
+      <c r="AS1" s="85"/>
+      <c r="AT1" s="85"/>
+      <c r="AU1" s="85"/>
+      <c r="AV1" s="85"/>
+      <c r="AW1" s="86"/>
+      <c r="AX1" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="AY1" s="74"/>
-      <c r="AZ1" s="74"/>
-      <c r="BA1" s="74"/>
-      <c r="BB1" s="74"/>
-      <c r="BC1" s="74"/>
-      <c r="BD1" s="74"/>
-      <c r="BE1" s="74"/>
-      <c r="BF1" s="74"/>
-      <c r="BG1" s="74"/>
-      <c r="BH1" s="74"/>
-      <c r="BI1" s="74"/>
-      <c r="BJ1" s="74"/>
-      <c r="BK1" s="74"/>
-      <c r="BL1" s="74"/>
-      <c r="BM1" s="75"/>
-      <c r="BN1" s="77" t="s">
+      <c r="AY1" s="85"/>
+      <c r="AZ1" s="85"/>
+      <c r="BA1" s="85"/>
+      <c r="BB1" s="85"/>
+      <c r="BC1" s="85"/>
+      <c r="BD1" s="85"/>
+      <c r="BE1" s="85"/>
+      <c r="BF1" s="85"/>
+      <c r="BG1" s="85"/>
+      <c r="BH1" s="85"/>
+      <c r="BI1" s="85"/>
+      <c r="BJ1" s="85"/>
+      <c r="BK1" s="85"/>
+      <c r="BL1" s="85"/>
+      <c r="BM1" s="86"/>
+      <c r="BN1" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="BO1" s="78"/>
-      <c r="BP1" s="78"/>
-      <c r="BQ1" s="78"/>
-      <c r="BR1" s="78"/>
-      <c r="BS1" s="78"/>
-      <c r="BT1" s="78"/>
-      <c r="BU1" s="79"/>
-      <c r="BV1" s="80" t="s">
+      <c r="BO1" s="89"/>
+      <c r="BP1" s="89"/>
+      <c r="BQ1" s="89"/>
+      <c r="BR1" s="89"/>
+      <c r="BS1" s="89"/>
+      <c r="BT1" s="89"/>
+      <c r="BU1" s="90"/>
+      <c r="BV1" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="81"/>
-      <c r="BX1" s="81"/>
-      <c r="BY1" s="82"/>
-      <c r="BZ1" s="83" t="s">
+      <c r="BW1" s="92"/>
+      <c r="BX1" s="92"/>
+      <c r="BY1" s="93"/>
+      <c r="BZ1" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="CA1" s="84"/>
-      <c r="CB1" s="84"/>
-      <c r="CC1" s="85"/>
+      <c r="CA1" s="82"/>
+      <c r="CB1" s="82"/>
+      <c r="CC1" s="83"/>
     </row>
     <row r="2" spans="1:88" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="86" t="s">
+      <c r="D2" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="86" t="s">
+      <c r="E2" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="86" t="s">
+      <c r="F2" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="86" t="s">
+      <c r="G2" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="86" t="s">
+      <c r="H2" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="86" t="s">
+      <c r="I2" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="86" t="s">
+      <c r="J2" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="K2" s="86" t="s">
+      <c r="K2" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="L2" s="86" t="s">
+      <c r="L2" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="M2" s="86" t="s">
+      <c r="M2" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="N2" s="86" t="s">
+      <c r="N2" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="86" t="s">
+      <c r="O2" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="P2" s="86" t="s">
+      <c r="P2" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="Q2" s="87" t="s">
+      <c r="Q2" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="R2" s="86" t="s">
+      <c r="R2" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="S2" s="86" t="s">
+      <c r="S2" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="T2" s="86" t="s">
+      <c r="T2" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="U2" s="86" t="s">
+      <c r="U2" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="V2" s="86" t="s">
+      <c r="V2" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="W2" s="86" t="s">
+      <c r="W2" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="X2" s="86" t="s">
+      <c r="X2" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="Y2" s="86" t="s">
+      <c r="Y2" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="Z2" s="86" t="s">
+      <c r="Z2" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="AA2" s="86" t="s">
+      <c r="AA2" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="AB2" s="86" t="s">
+      <c r="AB2" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="AC2" s="86" t="s">
+      <c r="AC2" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="AD2" s="86" t="s">
+      <c r="AD2" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="AE2" s="86" t="s">
+      <c r="AE2" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="AF2" s="86" t="s">
+      <c r="AF2" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="AG2" s="87" t="s">
+      <c r="AG2" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="AH2" s="86" t="s">
+      <c r="AH2" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="AI2" s="86" t="s">
+      <c r="AI2" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="AJ2" s="86" t="s">
+      <c r="AJ2" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="AK2" s="86" t="s">
+      <c r="AK2" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="AL2" s="86" t="s">
+      <c r="AL2" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="AM2" s="86" t="s">
+      <c r="AM2" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="AN2" s="86" t="s">
+      <c r="AN2" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="AO2" s="86" t="s">
+      <c r="AO2" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="AP2" s="86" t="s">
+      <c r="AP2" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="AQ2" s="86" t="s">
+      <c r="AQ2" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="AR2" s="86" t="s">
+      <c r="AR2" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="AS2" s="86" t="s">
+      <c r="AS2" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="AT2" s="86" t="s">
+      <c r="AT2" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="AU2" s="86" t="s">
+      <c r="AU2" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="AV2" s="86" t="s">
+      <c r="AV2" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="AW2" s="87" t="s">
+      <c r="AW2" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="AX2" s="86" t="s">
+      <c r="AX2" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="AY2" s="86" t="s">
+      <c r="AY2" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="AZ2" s="86" t="s">
+      <c r="AZ2" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="BA2" s="86" t="s">
+      <c r="BA2" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="BB2" s="86" t="s">
+      <c r="BB2" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="BC2" s="86" t="s">
+      <c r="BC2" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="BD2" s="86" t="s">
+      <c r="BD2" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="BE2" s="86" t="s">
+      <c r="BE2" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="BF2" s="86" t="s">
+      <c r="BF2" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="BG2" s="86" t="s">
+      <c r="BG2" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="BH2" s="86" t="s">
+      <c r="BH2" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="BI2" s="86" t="s">
+      <c r="BI2" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="BJ2" s="86" t="s">
+      <c r="BJ2" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="BK2" s="86" t="s">
+      <c r="BK2" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="BL2" s="86" t="s">
+      <c r="BL2" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="BM2" s="87" t="s">
+      <c r="BM2" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="BN2" s="88" t="s">
+      <c r="BN2" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="BO2" s="86" t="s">
+      <c r="BO2" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="BP2" s="86" t="s">
+      <c r="BP2" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="BQ2" s="86" t="s">
+      <c r="BQ2" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="BR2" s="86" t="s">
+      <c r="BR2" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="BS2" s="86" t="s">
+      <c r="BS2" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="BT2" s="86" t="s">
+      <c r="BT2" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="BU2" s="87" t="s">
+      <c r="BU2" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="BV2" s="86" t="s">
+      <c r="BV2" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="BW2" s="86" t="s">
+      <c r="BW2" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="BX2" s="86" t="s">
+      <c r="BX2" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="BY2" s="87" t="s">
+      <c r="BY2" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="BZ2" s="86" t="s">
+      <c r="BZ2" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="CA2" s="86" t="s">
+      <c r="CA2" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="CB2" s="86" t="s">
+      <c r="CB2" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="CC2" s="87" t="s">
+      <c r="CC2" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="CG2" s="89" t="s">
+      <c r="CG2" s="84" t="s">
         <v>155</v>
       </c>
-      <c r="CH2" s="89"/>
-      <c r="CI2" s="89"/>
-      <c r="CJ2" s="89"/>
+      <c r="CH2" s="84"/>
+      <c r="CI2" s="84"/>
+      <c r="CJ2" s="84"/>
     </row>
     <row r="3" spans="1:88" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="90">
-        <v>0</v>
-      </c>
-      <c r="C3" s="90">
-        <v>0</v>
-      </c>
-      <c r="D3" s="90">
-        <v>0</v>
-      </c>
-      <c r="E3" s="90">
-        <v>0</v>
-      </c>
-      <c r="F3" s="90">
-        <v>0</v>
-      </c>
-      <c r="G3" s="90">
-        <v>0</v>
-      </c>
-      <c r="H3" s="90">
-        <v>0</v>
-      </c>
-      <c r="I3" s="90">
-        <v>1</v>
-      </c>
-      <c r="J3" s="90">
-        <v>0</v>
-      </c>
-      <c r="K3" s="90">
-        <v>0</v>
-      </c>
-      <c r="L3" s="90">
-        <v>0</v>
-      </c>
-      <c r="M3" s="90">
-        <v>0</v>
-      </c>
-      <c r="N3" s="90">
-        <v>1</v>
-      </c>
-      <c r="O3" s="90">
-        <v>0</v>
-      </c>
-      <c r="P3" s="90">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="91">
-        <v>1</v>
-      </c>
-      <c r="R3" s="90">
-        <v>0</v>
-      </c>
-      <c r="S3" s="90">
-        <v>1</v>
-      </c>
-      <c r="T3" s="90">
-        <v>0</v>
-      </c>
-      <c r="U3" s="90">
-        <v>1</v>
-      </c>
-      <c r="V3" s="90">
-        <v>0</v>
-      </c>
-      <c r="W3" s="90">
-        <v>0</v>
-      </c>
-      <c r="X3" s="90">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="90">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="90">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="90">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="90">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="90">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="90">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="90">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="90">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="91">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="90">
-        <v>1</v>
-      </c>
-      <c r="AI3" s="90">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="90">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="90">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="90">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="90">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="90">
-        <v>1</v>
-      </c>
-      <c r="AO3" s="90">
-        <v>0</v>
-      </c>
-      <c r="AP3" s="90">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="90">
-        <v>1</v>
-      </c>
-      <c r="AR3" s="90">
-        <v>0</v>
-      </c>
-      <c r="AS3" s="90">
-        <v>0</v>
-      </c>
-      <c r="AT3" s="90">
-        <v>0</v>
-      </c>
-      <c r="AU3" s="90">
-        <v>0</v>
-      </c>
-      <c r="AV3" s="90">
-        <v>0</v>
-      </c>
-      <c r="AW3" s="91">
-        <v>0</v>
-      </c>
-      <c r="AX3" s="90">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="90">
-        <v>0</v>
-      </c>
-      <c r="AZ3" s="90">
-        <v>1</v>
-      </c>
-      <c r="BA3" s="90">
-        <v>0</v>
-      </c>
-      <c r="BB3" s="90">
-        <v>1</v>
-      </c>
-      <c r="BC3" s="90">
-        <v>0</v>
-      </c>
-      <c r="BD3" s="90">
-        <v>0</v>
-      </c>
-      <c r="BE3" s="90">
-        <v>0</v>
-      </c>
-      <c r="BF3" s="90">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="90">
-        <v>0</v>
-      </c>
-      <c r="BH3" s="90">
-        <v>1</v>
-      </c>
-      <c r="BI3" s="90">
-        <v>0</v>
-      </c>
-      <c r="BJ3" s="90">
-        <v>0</v>
-      </c>
-      <c r="BK3" s="90">
-        <v>1</v>
-      </c>
-      <c r="BL3" s="90">
-        <v>0</v>
-      </c>
-      <c r="BM3" s="91">
-        <v>0</v>
-      </c>
-      <c r="BN3" s="90">
+      <c r="B3" s="53">
+        <v>0</v>
+      </c>
+      <c r="C3" s="53">
+        <v>0</v>
+      </c>
+      <c r="D3" s="53">
+        <v>0</v>
+      </c>
+      <c r="E3" s="53">
+        <v>0</v>
+      </c>
+      <c r="F3" s="53">
+        <v>0</v>
+      </c>
+      <c r="G3" s="53">
+        <v>0</v>
+      </c>
+      <c r="H3" s="53">
+        <v>0</v>
+      </c>
+      <c r="I3" s="53">
+        <v>1</v>
+      </c>
+      <c r="J3" s="53">
+        <v>0</v>
+      </c>
+      <c r="K3" s="53">
+        <v>0</v>
+      </c>
+      <c r="L3" s="53">
+        <v>0</v>
+      </c>
+      <c r="M3" s="53">
+        <v>0</v>
+      </c>
+      <c r="N3" s="53">
+        <v>1</v>
+      </c>
+      <c r="O3" s="53">
+        <v>0</v>
+      </c>
+      <c r="P3" s="53">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="54">
+        <v>1</v>
+      </c>
+      <c r="R3" s="53">
+        <v>0</v>
+      </c>
+      <c r="S3" s="53">
+        <v>1</v>
+      </c>
+      <c r="T3" s="53">
+        <v>0</v>
+      </c>
+      <c r="U3" s="53">
+        <v>1</v>
+      </c>
+      <c r="V3" s="53">
+        <v>0</v>
+      </c>
+      <c r="W3" s="53">
+        <v>0</v>
+      </c>
+      <c r="X3" s="53">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="53">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="53">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="53">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="53">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="53">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="53">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="53">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="54">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="53">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="53">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="53">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="53">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="53">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="53">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="53">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="53">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="53">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="53">
+        <v>1</v>
+      </c>
+      <c r="AR3" s="53">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="53">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="53">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="53">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="53">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="54">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="53">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="53">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="53">
+        <v>1</v>
+      </c>
+      <c r="BA3" s="53">
+        <v>0</v>
+      </c>
+      <c r="BB3" s="53">
+        <v>1</v>
+      </c>
+      <c r="BC3" s="53">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="53">
+        <v>0</v>
+      </c>
+      <c r="BE3" s="53">
+        <v>0</v>
+      </c>
+      <c r="BF3" s="53">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="53">
+        <v>0</v>
+      </c>
+      <c r="BH3" s="53">
+        <v>1</v>
+      </c>
+      <c r="BI3" s="53">
+        <v>0</v>
+      </c>
+      <c r="BJ3" s="53">
+        <v>0</v>
+      </c>
+      <c r="BK3" s="53">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="53">
+        <v>0</v>
+      </c>
+      <c r="BM3" s="54">
+        <v>0</v>
+      </c>
+      <c r="BN3" s="53">
         <v>1.5</v>
       </c>
-      <c r="BO3" s="90">
-        <v>0</v>
-      </c>
-      <c r="BP3" s="90">
-        <v>0</v>
-      </c>
-      <c r="BQ3" s="90">
+      <c r="BO3" s="53">
+        <v>0</v>
+      </c>
+      <c r="BP3" s="53">
+        <v>0</v>
+      </c>
+      <c r="BQ3" s="53">
         <v>0.5</v>
       </c>
-      <c r="BR3" s="90">
-        <v>0</v>
-      </c>
-      <c r="BS3" s="90">
+      <c r="BR3" s="53">
+        <v>0</v>
+      </c>
+      <c r="BS3" s="53">
         <v>0.5</v>
       </c>
-      <c r="BT3" s="90">
-        <v>0</v>
-      </c>
-      <c r="BU3" s="92">
+      <c r="BT3" s="53">
+        <v>0</v>
+      </c>
+      <c r="BU3" s="55">
         <v>0.5</v>
       </c>
-      <c r="BV3" s="90">
-        <v>1</v>
-      </c>
-      <c r="BW3" s="90">
-        <v>1</v>
-      </c>
-      <c r="BX3" s="90">
-        <v>1</v>
-      </c>
-      <c r="BY3" s="91">
-        <v>0</v>
-      </c>
-      <c r="BZ3" s="90">
-        <v>1</v>
-      </c>
-      <c r="CA3" s="90">
-        <v>1</v>
-      </c>
-      <c r="CB3" s="90">
-        <v>0</v>
-      </c>
-      <c r="CC3" s="92">
+      <c r="BV3" s="53">
+        <v>1</v>
+      </c>
+      <c r="BW3" s="53">
+        <v>1</v>
+      </c>
+      <c r="BX3" s="53">
+        <v>1</v>
+      </c>
+      <c r="BY3" s="54">
+        <v>0</v>
+      </c>
+      <c r="BZ3" s="53">
+        <v>1</v>
+      </c>
+      <c r="CA3" s="53">
+        <v>1</v>
+      </c>
+      <c r="CB3" s="53">
+        <v>0</v>
+      </c>
+      <c r="CC3" s="55">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:88" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
-      <c r="O4" s="86"/>
-      <c r="P4" s="86"/>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="86"/>
-      <c r="S4" s="86"/>
-      <c r="T4" s="86"/>
-      <c r="U4" s="86"/>
-      <c r="V4" s="86"/>
-      <c r="W4" s="86"/>
-      <c r="X4" s="86"/>
-      <c r="Y4" s="86"/>
-      <c r="Z4" s="86"/>
-      <c r="AA4" s="86"/>
-      <c r="AB4" s="86"/>
-      <c r="AC4" s="86"/>
-      <c r="AD4" s="86"/>
-      <c r="AE4" s="86"/>
-      <c r="AF4" s="86"/>
-      <c r="AG4" s="87"/>
-      <c r="AH4" s="86"/>
-      <c r="AI4" s="86"/>
-      <c r="AJ4" s="86"/>
-      <c r="AK4" s="86"/>
-      <c r="AL4" s="86"/>
-      <c r="AM4" s="86"/>
-      <c r="AN4" s="86"/>
-      <c r="AO4" s="86"/>
-      <c r="AP4" s="86"/>
-      <c r="AQ4" s="86"/>
-      <c r="AR4" s="86"/>
-      <c r="AS4" s="86"/>
-      <c r="AT4" s="86"/>
-      <c r="AU4" s="86"/>
-      <c r="AV4" s="86"/>
-      <c r="AW4" s="87"/>
-      <c r="AX4" s="86"/>
-      <c r="AY4" s="86"/>
-      <c r="AZ4" s="86"/>
-      <c r="BA4" s="86"/>
-      <c r="BB4" s="86"/>
-      <c r="BC4" s="86"/>
-      <c r="BD4" s="86"/>
-      <c r="BE4" s="86"/>
-      <c r="BF4" s="86"/>
-      <c r="BG4" s="86"/>
-      <c r="BH4" s="86"/>
-      <c r="BI4" s="86"/>
-      <c r="BJ4" s="86"/>
-      <c r="BK4" s="86"/>
-      <c r="BL4" s="86"/>
-      <c r="BM4" s="87"/>
-      <c r="BN4" s="86">
-        <v>1</v>
-      </c>
-      <c r="BO4" s="86">
-        <v>1</v>
-      </c>
-      <c r="BP4" s="86">
-        <v>1</v>
-      </c>
-      <c r="BQ4" s="86">
-        <v>1</v>
-      </c>
-      <c r="BR4" s="86">
-        <v>1</v>
-      </c>
-      <c r="BS4" s="86">
-        <v>1</v>
-      </c>
-      <c r="BT4" s="86">
-        <v>1</v>
-      </c>
-      <c r="BU4" s="87">
-        <v>1</v>
-      </c>
-      <c r="BV4" s="86"/>
-      <c r="BW4" s="86"/>
-      <c r="BX4" s="86"/>
-      <c r="BY4" s="87"/>
-      <c r="BZ4" s="86"/>
-      <c r="CA4" s="86"/>
-      <c r="CB4" s="86"/>
-      <c r="CC4" s="86"/>
-      <c r="CD4" s="93">
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="50"/>
+      <c r="AE4" s="50"/>
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="51"/>
+      <c r="AH4" s="50"/>
+      <c r="AI4" s="50"/>
+      <c r="AJ4" s="50"/>
+      <c r="AK4" s="50"/>
+      <c r="AL4" s="50"/>
+      <c r="AM4" s="50"/>
+      <c r="AN4" s="50"/>
+      <c r="AO4" s="50"/>
+      <c r="AP4" s="50"/>
+      <c r="AQ4" s="50"/>
+      <c r="AR4" s="50"/>
+      <c r="AS4" s="50"/>
+      <c r="AT4" s="50"/>
+      <c r="AU4" s="50"/>
+      <c r="AV4" s="50"/>
+      <c r="AW4" s="51"/>
+      <c r="AX4" s="50"/>
+      <c r="AY4" s="50"/>
+      <c r="AZ4" s="50"/>
+      <c r="BA4" s="50"/>
+      <c r="BB4" s="50"/>
+      <c r="BC4" s="50"/>
+      <c r="BD4" s="50"/>
+      <c r="BE4" s="50"/>
+      <c r="BF4" s="50"/>
+      <c r="BG4" s="50"/>
+      <c r="BH4" s="50"/>
+      <c r="BI4" s="50"/>
+      <c r="BJ4" s="50"/>
+      <c r="BK4" s="50"/>
+      <c r="BL4" s="50"/>
+      <c r="BM4" s="51"/>
+      <c r="BN4" s="50">
+        <v>1</v>
+      </c>
+      <c r="BO4" s="50">
+        <v>1</v>
+      </c>
+      <c r="BP4" s="50">
+        <v>1</v>
+      </c>
+      <c r="BQ4" s="50">
+        <v>1</v>
+      </c>
+      <c r="BR4" s="50">
+        <v>1</v>
+      </c>
+      <c r="BS4" s="50">
+        <v>1</v>
+      </c>
+      <c r="BT4" s="50">
+        <v>1</v>
+      </c>
+      <c r="BU4" s="51">
+        <v>1</v>
+      </c>
+      <c r="BV4" s="50"/>
+      <c r="BW4" s="50"/>
+      <c r="BX4" s="50"/>
+      <c r="BY4" s="51"/>
+      <c r="BZ4" s="50"/>
+      <c r="CA4" s="50"/>
+      <c r="CB4" s="50"/>
+      <c r="CC4" s="50"/>
+      <c r="CD4" s="56">
         <f>SUMPRODUCT(B3:CC3,B4:CC4)/4</f>
         <v>0.75</v>
       </c>
@@ -9962,9 +9910,9 @@
               </from>
               <to>
                 <xdr:col>14</xdr:col>
-                <xdr:colOff>182880</xdr:colOff>
-                <xdr:row>121</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:colOff>83820</xdr:colOff>
+                <xdr:row>120</xdr:row>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
